--- a/Ex4.xlsx
+++ b/Ex4.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Source\Repos\Exercise-4---FW\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11970" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>17(3-4-5)</t>
   </si>
@@ -51,13 +49,55 @@
   </si>
   <si>
     <t>8 (1-2-4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>5(1-2)</t>
+  </si>
+  <si>
+    <t>2(1-3)</t>
+  </si>
+  <si>
+    <t>-2(2-3)</t>
+  </si>
+  <si>
+    <t>3(2-4)</t>
+  </si>
+  <si>
+    <t>7(3-4)</t>
+  </si>
+  <si>
+    <t>10(4-5)</t>
+  </si>
+  <si>
+    <t>9(5-2)</t>
+  </si>
+  <si>
+    <t>0(1-1)</t>
+  </si>
+  <si>
+    <t>0(2-2)</t>
+  </si>
+  <si>
+    <t>0(3-3)</t>
+  </si>
+  <si>
+    <t>0(4-4)</t>
+  </si>
+  <si>
+    <t>0(5-5)</t>
+  </si>
+  <si>
+    <t>0(NO PATH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +115,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,8 +183,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -136,26 +194,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -214,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,7 +486,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -434,20 +494,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="196" zoomScaleNormal="196" zoomScalePageLayoutView="196" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="7" max="11" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="7" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1">
         <v>0</v>
       </c>
@@ -459,23 +519,23 @@
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="G1" s="5">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6">
-        <v>5</v>
-      </c>
-      <c r="I1" s="6">
+      <c r="G1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>0</v>
@@ -487,23 +547,23 @@
         <v>3</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="G2" s="8">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>-2</v>
-      </c>
-      <c r="J2" s="6">
-        <v>3</v>
-      </c>
-      <c r="K2" s="7" t="s">
+      <c r="G2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3">
@@ -513,23 +573,23 @@
         <v>7</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="8">
+      <c r="G3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="6">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -539,23 +599,23 @@
       <c r="E4">
         <v>10</v>
       </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>10</v>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>9</v>
@@ -565,23 +625,23 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>9</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="G5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="5">
-        <v>0</v>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -598,24 +658,34 @@
         <v>5</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <v>1</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="10">
         <v>2</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="10">
         <v>3</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="10">
         <v>4</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="10">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="H8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>